--- a/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>203185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>189650</v>
+        <v>189078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>209088</v>
+        <v>209118</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9639610184010157</v>
+        <v>0.9639610184010156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8997478461978383</v>
+        <v>0.8970367930671544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.99196954798004</v>
+        <v>0.9921124268406909</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -762,19 +762,19 @@
         <v>146009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133454</v>
+        <v>132454</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155107</v>
+        <v>155282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.895844291029482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8188091325845064</v>
+        <v>0.8126785844223582</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9516640633959632</v>
+        <v>0.9527375600281421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -783,19 +783,19 @@
         <v>349194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332318</v>
+        <v>330685</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>361663</v>
+        <v>359704</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9342579616725274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8891063928887513</v>
+        <v>0.8847385907576051</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9676196296831112</v>
+        <v>0.9623780287970546</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1693</v>
+        <v>1663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21131</v>
+        <v>21703</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03603898159898441</v>
+        <v>0.0360389815989844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008030452019959937</v>
+        <v>0.007887573159309158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1002521538021619</v>
+        <v>0.1029632069328455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>14604</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6322</v>
+        <v>6106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27497</v>
+        <v>28798</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08960541214212132</v>
+        <v>0.08960541214212131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03878697284197379</v>
+        <v>0.03746059106496288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1687102977691265</v>
+        <v>0.176691414488427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>22201</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10492</v>
+        <v>11761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40332</v>
+        <v>39476</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05939721953204085</v>
+        <v>0.05939721953204086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02806974439973057</v>
+        <v>0.03146509594164068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1079071310054416</v>
+        <v>0.1056180569193049</v>
       </c>
     </row>
     <row r="6">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10624</v>
+        <v>13408</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.01455029682839671</v>
+        <v>0.0145502968283967</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06518652376573247</v>
+        <v>0.08226380924470522</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11885</v>
+        <v>14542</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.006344818795431794</v>
+        <v>0.006344818795431795</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03179743023640312</v>
+        <v>0.03890622460040911</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>209703</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>195710</v>
+        <v>195041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>218801</v>
+        <v>218424</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9245617760059148</v>
+        <v>0.9245617760059149</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8628677730792202</v>
+        <v>0.8599189174319711</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9646755006936159</v>
+        <v>0.9630147871710019</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>215</v>
@@ -1089,19 +1089,19 @@
         <v>236515</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>226506</v>
+        <v>226757</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>242388</v>
+        <v>242542</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9447239762130601</v>
+        <v>0.9447239762130603</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9047427821850518</v>
+        <v>0.9057439805417993</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9681800933656283</v>
+        <v>0.9687975623487957</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>351</v>
@@ -1110,19 +1110,19 @@
         <v>446217</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>431590</v>
+        <v>429010</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>457504</v>
+        <v>458001</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.9351402216734129</v>
+        <v>0.9351402216734128</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9044851588209489</v>
+        <v>0.8990787012372037</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9587947355250357</v>
+        <v>0.9598367976550314</v>
       </c>
     </row>
     <row r="10">
@@ -1139,19 +1139,19 @@
         <v>15290</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6762</v>
+        <v>6524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28057</v>
+        <v>30093</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06741431333971661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02981253823488725</v>
+        <v>0.02876232081014706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1237014851202855</v>
+        <v>0.1326757878334889</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1160,19 +1160,19 @@
         <v>10240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5150</v>
+        <v>5286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18149</v>
+        <v>19103</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04090324545933817</v>
+        <v>0.04090324545933818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02056995222829281</v>
+        <v>0.02111283470796489</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07249149794005813</v>
+        <v>0.07630200069350851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1181,19 +1181,19 @@
         <v>25531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15254</v>
+        <v>15528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39864</v>
+        <v>41222</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05350482487721487</v>
+        <v>0.05350482487721486</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03196887924016253</v>
+        <v>0.03254301895733538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08354276180126508</v>
+        <v>0.08638850734043063</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9936</v>
+        <v>10181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008023910654368641</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04380594837129662</v>
+        <v>0.04488773769720394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6843</v>
+        <v>5560</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004376358699879396</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02733229066866331</v>
+        <v>0.02220936032504454</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1255,16 +1255,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10217</v>
+        <v>11182</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.006110159686045912</v>
+        <v>0.006110159686045911</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02141267011970578</v>
+        <v>0.0234336163922398</v>
       </c>
     </row>
     <row r="12">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10029</v>
+        <v>9690</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009996419627722368</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04006067871929894</v>
+        <v>0.03870451735750603</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1318,16 +1318,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9451</v>
+        <v>10423</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.005244793763326343</v>
+        <v>0.005244793763326342</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0198057326938419</v>
+        <v>0.0218432333400759</v>
       </c>
     </row>
     <row r="13">
@@ -1419,19 +1419,19 @@
         <v>242124</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>230775</v>
+        <v>231804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>247785</v>
+        <v>247968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9588395350111721</v>
+        <v>0.958839535011172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9138962077214193</v>
+        <v>0.9179693895210154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.981257533550446</v>
+        <v>0.9819808733396667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1440,19 +1440,19 @@
         <v>275303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266701</v>
+        <v>266171</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>281732</v>
+        <v>281511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9280868888777255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.899089464697983</v>
+        <v>0.8973022816903723</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.949758929379342</v>
+        <v>0.9490156359017602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>580</v>
@@ -1461,19 +1461,19 @@
         <v>517427</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>506076</v>
+        <v>504100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>526664</v>
+        <v>526139</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9422279056026792</v>
+        <v>0.9422279056026791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9215574345507144</v>
+        <v>0.9179592438875019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.959047095703108</v>
+        <v>0.9580911290612001</v>
       </c>
     </row>
     <row r="15">
@@ -1490,19 +1490,19 @@
         <v>10394</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4733</v>
+        <v>4550</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21743</v>
+        <v>20714</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04116046498882804</v>
+        <v>0.04116046498882803</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.018742466449554</v>
+        <v>0.01801912666033335</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08610379227858046</v>
+        <v>0.0820306104789847</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -1511,19 +1511,19 @@
         <v>17706</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12031</v>
+        <v>12096</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26326</v>
+        <v>25914</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05968897477173023</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.040556712116069</v>
+        <v>0.0407763665585586</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08874821841531132</v>
+        <v>0.08736037573923612</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>32</v>
@@ -1532,19 +1532,19 @@
         <v>28100</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>19272</v>
+        <v>19541</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>39245</v>
+        <v>40033</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05116899357754204</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03509321229024794</v>
+        <v>0.0355840116985529</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07146479673897385</v>
+        <v>0.07289968928224529</v>
       </c>
     </row>
     <row r="16">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3986</v>
+        <v>5755</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003244414556456899</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01343626631580925</v>
+        <v>0.01940158418922341</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5968</v>
+        <v>4770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001752532514617186</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0108673606813943</v>
+        <v>0.008686752692675421</v>
       </c>
     </row>
     <row r="17">
@@ -1637,19 +1637,19 @@
         <v>2664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>805</v>
+        <v>700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6871</v>
+        <v>6491</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.008979721794087311</v>
+        <v>0.008979721794087313</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002713840868332451</v>
+        <v>0.00235894945869071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02316380014907146</v>
+        <v>0.02188201330895152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1658,19 +1658,19 @@
         <v>2664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6584</v>
+        <v>6451</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.004850568305161545</v>
+        <v>0.004850568305161546</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001258413233861888</v>
+        <v>0.001273699045173915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01198949385160899</v>
+        <v>0.01174795474093869</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         <v>289971</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>276538</v>
+        <v>277232</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>298740</v>
+        <v>299076</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9145400605954618</v>
+        <v>0.9145400605954621</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8721740890893267</v>
+        <v>0.8743624094711385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.942196744033338</v>
+        <v>0.9432542733832867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>486</v>
@@ -1783,19 +1783,19 @@
         <v>317430</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>308699</v>
+        <v>308524</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>324699</v>
+        <v>324978</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9179373505599445</v>
+        <v>0.9179373505599442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8926887773075529</v>
+        <v>0.8921815916819883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9389584191416201</v>
+        <v>0.9397628347153268</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>759</v>
@@ -1804,19 +1804,19 @@
         <v>607401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>591689</v>
+        <v>591705</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>619735</v>
+        <v>619243</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9163123531806643</v>
+        <v>0.916312353180664</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8926102088341187</v>
+        <v>0.8926349794176032</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9349204063548772</v>
+        <v>0.934177048301419</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>21684</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13348</v>
+        <v>13007</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34308</v>
+        <v>32386</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06838930524492538</v>
+        <v>0.0683893052449254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04209729044437752</v>
+        <v>0.04102121888531407</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1082041511823476</v>
+        <v>0.1021433969676916</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -1854,19 +1854,19 @@
         <v>21063</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14616</v>
+        <v>15113</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28675</v>
+        <v>29505</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06091053367638759</v>
+        <v>0.06091053367638758</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04226605216218674</v>
+        <v>0.04370402898303768</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08292152605839805</v>
+        <v>0.08532073659316092</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>49</v>
@@ -1875,19 +1875,19 @@
         <v>42747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31750</v>
+        <v>31914</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57534</v>
+        <v>56852</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06448779211654596</v>
+        <v>0.06448779211654594</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04789692254268502</v>
+        <v>0.04814520869771146</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08679508858414363</v>
+        <v>0.08576624309322249</v>
       </c>
     </row>
     <row r="21">
@@ -1904,19 +1904,19 @@
         <v>4268</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1118</v>
+        <v>1140</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10344</v>
+        <v>11253</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01346017268477917</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00352472644008641</v>
+        <v>0.003595505385403309</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03262341650647658</v>
+        <v>0.03549179787546027</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1925,19 +1925,19 @@
         <v>5271</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2520</v>
+        <v>2467</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10863</v>
+        <v>10030</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01524238084259276</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007287309996735757</v>
+        <v>0.007132915284862025</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03141274725275042</v>
+        <v>0.02900482170945668</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -1946,19 +1946,19 @@
         <v>9539</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4860</v>
+        <v>5404</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16554</v>
+        <v>17260</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01438991207600036</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007331512665552434</v>
+        <v>0.008151861720605379</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02497307923528263</v>
+        <v>0.02603793746961027</v>
       </c>
     </row>
     <row r="22">
@@ -1978,16 +1978,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.003610461474833439</v>
+        <v>0.00361046147483344</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01837740014545229</v>
+        <v>0.01838838712061448</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1996,19 +1996,19 @@
         <v>2044</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5448</v>
+        <v>5431</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.005909734921075419</v>
+        <v>0.005909734921075418</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001917921966849835</v>
+        <v>0.001937119604815315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01575369337467435</v>
+        <v>0.01570429401093682</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2017,19 +2017,19 @@
         <v>3188</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8285</v>
+        <v>8417</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.004809942626789686</v>
+        <v>0.004809942626789685</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001040398550587536</v>
+        <v>0.00104838622958792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01249838486544414</v>
+        <v>0.01269713689299846</v>
       </c>
     </row>
     <row r="23">
@@ -2121,19 +2121,19 @@
         <v>234637</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>224432</v>
+        <v>225401</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>242460</v>
+        <v>243152</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9112773906139239</v>
+        <v>0.911277390613924</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8716433235533004</v>
+        <v>0.8754089724678341</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9416623344237667</v>
+        <v>0.9443479196946413</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>359</v>
@@ -2142,19 +2142,19 @@
         <v>221420</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>213055</v>
+        <v>212569</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>228947</v>
+        <v>229347</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8736121954592523</v>
+        <v>0.8736121954592522</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8406112609840573</v>
+        <v>0.8386915619109252</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9033104296178313</v>
+        <v>0.9048892493370706</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>613</v>
@@ -2163,19 +2163,19 @@
         <v>456056</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>442661</v>
+        <v>441682</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>467312</v>
+        <v>467038</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8925932730118969</v>
+        <v>0.8925932730118972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.866375385657023</v>
+        <v>0.8644601140517868</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9146238411484188</v>
+        <v>0.914086652178858</v>
       </c>
     </row>
     <row r="25">
@@ -2192,19 +2192,19 @@
         <v>16458</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9687</v>
+        <v>9722</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26031</v>
+        <v>24844</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06391935113214979</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03762286744161555</v>
+        <v>0.03775780016762791</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1010982131213726</v>
+        <v>0.09649016499558037</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -2213,19 +2213,19 @@
         <v>25526</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18765</v>
+        <v>17923</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34077</v>
+        <v>33297</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1007126253577047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0740356482251068</v>
+        <v>0.07071635053884202</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.13444903851196</v>
+        <v>0.1313728341077324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2234,19 +2234,19 @@
         <v>41984</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32380</v>
+        <v>32235</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54271</v>
+        <v>53721</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08217094546933248</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0633746800311958</v>
+        <v>0.06309044801651037</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1062184926967867</v>
+        <v>0.1051418635372497</v>
       </c>
     </row>
     <row r="26">
@@ -2263,19 +2263,19 @@
         <v>4732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1756</v>
+        <v>1847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10733</v>
+        <v>10867</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0183785461124807</v>
+        <v>0.01837854611248069</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006819047852394402</v>
+        <v>0.007172772481761566</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0416858059653152</v>
+        <v>0.04220373370681508</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2284,19 +2284,19 @@
         <v>2666</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6717</v>
+        <v>6833</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01051976449515502</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002753019328027813</v>
+        <v>0.002766214194215045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02650305706748544</v>
+        <v>0.02695976947843616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2305,19 +2305,19 @@
         <v>7398</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3673</v>
+        <v>3773</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13542</v>
+        <v>13860</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01448013540881156</v>
+        <v>0.01448013540881157</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007188880575595552</v>
+        <v>0.007384803052032428</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02650347373798026</v>
+        <v>0.02712708123100938</v>
       </c>
     </row>
     <row r="27">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5885</v>
+        <v>6520</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.006424712141445604</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02285580599325225</v>
+        <v>0.02532159238417655</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2355,19 +2355,19 @@
         <v>3841</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7883</v>
+        <v>8127</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01515541468788806</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005273338589722392</v>
+        <v>0.005245368306383393</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03110281968525383</v>
+        <v>0.03206409348425635</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -2376,19 +2376,19 @@
         <v>5495</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2592</v>
+        <v>2688</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10596</v>
+        <v>11425</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01075564610995876</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.005073394483550476</v>
+        <v>0.005261593979968178</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02073893521322241</v>
+        <v>0.02236018246017167</v>
       </c>
     </row>
     <row r="28">
@@ -2480,19 +2480,19 @@
         <v>167741</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>162079</v>
+        <v>161726</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>170946</v>
+        <v>171225</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9637365536642811</v>
+        <v>0.9637365536642812</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9312063503553362</v>
+        <v>0.9291762152960938</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9821518776561919</v>
+        <v>0.9837540197337309</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>336</v>
@@ -2501,19 +2501,19 @@
         <v>177688</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>170780</v>
+        <v>171576</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183375</v>
+        <v>183946</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8929890640674418</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8582731533490814</v>
+        <v>0.8622715456668215</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9215699163230388</v>
+        <v>0.9244387477756475</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>570</v>
@@ -2522,19 +2522,19 @@
         <v>345430</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>336834</v>
+        <v>335989</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>352597</v>
+        <v>352441</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9259989614302191</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9029567651353486</v>
+        <v>0.9006914149210874</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9452127592190348</v>
+        <v>0.9447922221560586</v>
       </c>
     </row>
     <row r="30">
@@ -2551,19 +2551,19 @@
         <v>5386</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2461</v>
+        <v>2058</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10670</v>
+        <v>10796</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03094491037762815</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01413711869878376</v>
+        <v>0.0118257275341884</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06130376817239387</v>
+        <v>0.06202648998225738</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -2572,19 +2572,19 @@
         <v>16715</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11647</v>
+        <v>11434</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22922</v>
+        <v>22618</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.0840010583687316</v>
+        <v>0.08400105836873162</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05853541177819638</v>
+        <v>0.0574618789411816</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1151951892264125</v>
+        <v>0.1136689968327036</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -2593,19 +2593,19 @@
         <v>22101</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15425</v>
+        <v>16069</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>29696</v>
+        <v>31562</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05924572062274201</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04134923482062544</v>
+        <v>0.04307646994759819</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07960638567152595</v>
+        <v>0.08460989635945708</v>
       </c>
     </row>
     <row r="31">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5496</v>
+        <v>4603</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.005318535958090684</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03157697073057281</v>
+        <v>0.02644487073788021</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4447</v>
+        <v>4714</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.006773466816536297</v>
+        <v>0.006773466816536296</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02235069009404683</v>
+        <v>0.02368959235711781</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>2274</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6431</v>
+        <v>6190</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006094614201681499</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001783654342257092</v>
+        <v>0.001775127462481052</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01723897049897534</v>
+        <v>0.01659423370299974</v>
       </c>
     </row>
     <row r="32">
@@ -2706,19 +2706,19 @@
         <v>3231</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6670</v>
+        <v>6335</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01623641074729033</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005978568863912891</v>
+        <v>0.005948300064065613</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03352274522035386</v>
+        <v>0.03183483996234818</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2727,19 +2727,19 @@
         <v>3231</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1375</v>
+        <v>1278</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7245</v>
+        <v>6912</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00866070374535749</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003685880395707298</v>
+        <v>0.003425581631392855</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01942270486460424</v>
+        <v>0.01852867987325376</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>124514</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>120455</v>
+        <v>119975</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>127342</v>
+        <v>127203</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.961046179092312</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9297172294324599</v>
+        <v>0.9260141824455772</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9828692059340771</v>
+        <v>0.9817986442142514</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>324</v>
@@ -2852,19 +2852,19 @@
         <v>174881</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>169225</v>
+        <v>169150</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>179428</v>
+        <v>179253</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9394160917303011</v>
+        <v>0.9394160917303012</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9090360388520066</v>
+        <v>0.9086296270239835</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9638437746627501</v>
+        <v>0.9629000430354788</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>508</v>
@@ -2873,19 +2873,19 @@
         <v>299395</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>292676</v>
+        <v>292428</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>304594</v>
+        <v>304552</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9482923493303653</v>
+        <v>0.9482923493303654</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.927011409464559</v>
+        <v>0.9262255032245472</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9647596669343903</v>
+        <v>0.9646262534696624</v>
       </c>
     </row>
     <row r="35">
@@ -2902,19 +2902,19 @@
         <v>3933</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1448</v>
+        <v>1564</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7996</v>
+        <v>7987</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03035392465951462</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01117876192594477</v>
+        <v>0.01207130613208298</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06171476691121177</v>
+        <v>0.06164766148749146</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -2923,19 +2923,19 @@
         <v>8103</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4717</v>
+        <v>4722</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12984</v>
+        <v>13459</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04352675448914856</v>
+        <v>0.04352675448914857</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02534019011214156</v>
+        <v>0.02536770911180252</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06974809960897348</v>
+        <v>0.07229762944339467</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>21</v>
@@ -2944,19 +2944,19 @@
         <v>12036</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7689</v>
+        <v>7508</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17966</v>
+        <v>17749</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03812106985492935</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02435242987961675</v>
+        <v>0.02377910900665745</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05690494135620326</v>
+        <v>0.05621677286084163</v>
       </c>
     </row>
     <row r="36">
@@ -2976,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2694</v>
+        <v>2681</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.004078567515612319</v>
+        <v>0.004078567515612318</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02079102640344349</v>
+        <v>0.02069341001052816</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2994,19 +2994,19 @@
         <v>3175</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1164</v>
+        <v>1029</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8276</v>
+        <v>7651</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0170571537805504</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006251135107114338</v>
+        <v>0.005527540704504842</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04445804540980328</v>
+        <v>0.04109785744184724</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -3015,19 +3015,19 @@
         <v>3704</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1579</v>
+        <v>1422</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8307</v>
+        <v>8258</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01173118014742606</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005001386682477414</v>
+        <v>0.004503978815052976</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02631190533474416</v>
+        <v>0.02615681994988115</v>
       </c>
     </row>
     <row r="37">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004521328732561106</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -3081,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2952</v>
+        <v>2942</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.001855400667279291</v>
+        <v>0.001855400667279292</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.009351514938091599</v>
+        <v>0.009318833301880802</v>
       </c>
     </row>
     <row r="38">
@@ -3182,19 +3182,19 @@
         <v>1471874</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1445879</v>
+        <v>1448709</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1493476</v>
+        <v>1491039</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.9385311162644576</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9219558638676952</v>
+        <v>0.9237599621179591</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9523056719611773</v>
+        <v>0.9507513844425132</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2171</v>
@@ -3203,19 +3203,19 @@
         <v>1549245</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1528154</v>
+        <v>1526509</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1569680</v>
+        <v>1568713</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.9143465855549167</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.9018989491355415</v>
+        <v>0.900928100094848</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.9264071360219008</v>
+        <v>0.9258362742916799</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3548</v>
@@ -3224,19 +3224,19 @@
         <v>3021119</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2987213</v>
+        <v>2984678</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3052386</v>
+        <v>3047981</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.9259714882021677</v>
+        <v>0.9259714882021675</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.915579187894118</v>
+        <v>0.9148023091177681</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.9355549274078504</v>
+        <v>0.934204691396459</v>
       </c>
     </row>
     <row r="40">
@@ -3253,19 +3253,19 @@
         <v>80741</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>61348</v>
+        <v>63603</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>104988</v>
+        <v>104212</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0514841770901177</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03911832297605757</v>
+        <v>0.04055619688477109</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06694512663851071</v>
+        <v>0.06645007874894035</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>158</v>
@@ -3274,19 +3274,19 @@
         <v>113957</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>96501</v>
+        <v>96329</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>133926</v>
+        <v>133303</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.06725621152568775</v>
+        <v>0.06725621152568774</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05695392667547351</v>
+        <v>0.05685200410911942</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07904137035679405</v>
+        <v>0.07867371195197699</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>225</v>
@@ -3295,19 +3295,19 @@
         <v>194698</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>168572</v>
+        <v>170329</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>227900</v>
+        <v>227881</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05967498668967053</v>
+        <v>0.05967498668967052</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05166729678202778</v>
+        <v>0.05220588615959064</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06985120746909952</v>
+        <v>0.06984535715065331</v>
       </c>
     </row>
     <row r="41">
@@ -3324,19 +3324,19 @@
         <v>12274</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6401</v>
+        <v>6899</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>21448</v>
+        <v>21505</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007826418029126472</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004081313872229647</v>
+        <v>0.004399390581105419</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01367621783378804</v>
+        <v>0.01371284435111001</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>22</v>
@@ -3345,19 +3345,19 @@
         <v>16890</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10951</v>
+        <v>10456</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26144</v>
+        <v>27034</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.009968193271505485</v>
+        <v>0.009968193271505483</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006463212104777779</v>
+        <v>0.00617124766526135</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01542998008429545</v>
+        <v>0.01595509415741226</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>34</v>
@@ -3366,19 +3366,19 @@
         <v>29164</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20337</v>
+        <v>20330</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>42330</v>
+        <v>42091</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00893869516033783</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006233412684819354</v>
+        <v>0.006231014871919473</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01297415438775246</v>
+        <v>0.01290088504425256</v>
       </c>
     </row>
     <row r="42">
@@ -3395,19 +3395,19 @@
         <v>3385</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.002158288616298389</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>21</v>
@@ -3416,19 +3416,19 @@
         <v>14282</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.008429009647890133</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>25</v>
@@ -3437,19 +3437,19 @@
         <v>17667</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.00541482994782403</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="43">
